--- a/output/kossutha/2020/sheets/year_2020.xlsx
+++ b/output/kossutha/2020/sheets/year_2020.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>41.59999999999999</v>
+        <v>45.13324548138318</v>
       </c>
       <c r="C2" t="n">
-        <v>36.28064516129033</v>
+        <v>40.75074477095221</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>37.27931034482759</v>
+        <v>44.04588972020633</v>
       </c>
       <c r="C3" t="n">
-        <v>28.16206896551724</v>
+        <v>39.84198437828424</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31.5483870967742</v>
+        <v>41.20596239108538</v>
       </c>
       <c r="C4" t="n">
-        <v>20.75483870967742</v>
+        <v>39.64355447810205</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>27.97</v>
+        <v>39.11671116638373</v>
       </c>
       <c r="C5" t="n">
-        <v>15.66666666666666</v>
+        <v>35.75792039447333</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>35.91612903225806</v>
+        <v>39.50922072324047</v>
       </c>
       <c r="C6" t="n">
-        <v>11.72258064516129</v>
+        <v>33.84898128828473</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.36666666666667</v>
+        <v>40.5994615150772</v>
       </c>
       <c r="C7" t="n">
-        <v>23.91333333333334</v>
+        <v>37.86678598641602</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.74838709677419</v>
+        <v>35.04349553759984</v>
       </c>
       <c r="C8" t="n">
-        <v>11.69354838709678</v>
+        <v>32.54705195564875</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.88387096774193</v>
+        <v>35.36648419340705</v>
       </c>
       <c r="C9" t="n">
-        <v>13.64193548387097</v>
+        <v>35.32535014671549</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.06333333333333</v>
+        <v>40.38186207409733</v>
       </c>
       <c r="C10" t="n">
-        <v>10.22</v>
+        <v>33.95719857168532</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.91935483870968</v>
+        <v>37.8827612408552</v>
       </c>
       <c r="C11" t="n">
-        <v>15.59354838709677</v>
+        <v>37.95808494919648</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.27333333333333</v>
+        <v>36.18640644775392</v>
       </c>
       <c r="C12" t="n">
-        <v>8.17</v>
+        <v>35.54819029162254</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.88709677419355</v>
+        <v>39.92862038479398</v>
       </c>
       <c r="C13" t="n">
-        <v>4.809677419354839</v>
+        <v>37.70724681555278</v>
       </c>
     </row>
   </sheetData>
